--- a/03_design/ユニットテスト仕様書(CUI).xlsx
+++ b/03_design/ユニットテスト仕様書(CUI).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CAE676-B3A7-45B4-8C67-239C56C48B5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CAB01-71D6-4263-A66B-A4A436D07EA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -933,12 +933,26 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Sswgtnk12</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>栢沼</t>
+    <rPh sb="0" eb="2">
+      <t>カヤヌマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -986,6 +1000,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1215,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,6 +1250,54 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,51 +1314,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1300,19 +1323,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1658,8 +1690,8 @@
   </sheetPr>
   <dimension ref="B1:AS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20:AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1674,104 +1706,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1864,1331 +1896,1500 @@
       <c r="AS5" s="4"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="5" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="5" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="5" t="s">
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="5" t="s">
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="5" t="s">
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="5" t="s">
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="7"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="23"/>
     </row>
     <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="12" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="11"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="12"/>
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="12" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="11"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="12"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="12" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="11"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="12"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="12" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="11"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="12"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="12" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="11"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="12"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="12" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="11"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="12"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="12" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="11"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="12"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="12" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="11"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="12"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="12" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="11"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="12"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="12" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="11"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="12"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="20" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="19"/>
+      <c r="AD17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="20"/>
     </row>
     <row r="18" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="12">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="15">
         <v>1</v>
       </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="11"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="12"/>
     </row>
     <row r="19" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="12">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="15">
         <v>-1</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="11"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="12"/>
     </row>
     <row r="20" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="12">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="15">
         <v>1</v>
       </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="11"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="12"/>
     </row>
     <row r="21" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="20">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17">
         <v>-1</v>
       </c>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="17">
+        <v>0</v>
+      </c>
       <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="19"/>
+      <c r="AD21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="20"/>
     </row>
     <row r="22" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="12">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="15">
         <v>1</v>
       </c>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="11"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="12"/>
     </row>
     <row r="23" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="20">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17">
         <v>-1</v>
       </c>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="17">
+        <v>0</v>
+      </c>
       <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="19"/>
+      <c r="AD23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="20"/>
     </row>
     <row r="24" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="12" t="b">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="11"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="12"/>
     </row>
     <row r="25" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="20" t="b">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="17" t="b">
+        <v>0</v>
+      </c>
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="19"/>
+      <c r="AD25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="20"/>
     </row>
     <row r="26" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="12" t="b">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="11"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="12"/>
     </row>
     <row r="27" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="20" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="18"/>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="18"/>
-      <c r="AS27" s="19"/>
+      <c r="AD27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="34">
+        <v>43986</v>
+      </c>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="20"/>
     </row>
     <row r="28" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="AP26:AS26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:S27"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AH27:AK27"/>
-    <mergeCell ref="AL27:AO27"/>
-    <mergeCell ref="AP27:AS27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:S26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:AO24"/>
-    <mergeCell ref="AP24:AS24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:S25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AH25:AK25"/>
-    <mergeCell ref="AL25:AO25"/>
-    <mergeCell ref="AP25:AS25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:S24"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH22:AK22"/>
-    <mergeCell ref="AL22:AO22"/>
-    <mergeCell ref="AP22:AS22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:S23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AH23:AK23"/>
-    <mergeCell ref="AL23:AO23"/>
-    <mergeCell ref="AP23:AS23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AH20:AK20"/>
-    <mergeCell ref="AL20:AO20"/>
-    <mergeCell ref="AP20:AS20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AH21:AK21"/>
-    <mergeCell ref="AL21:AO21"/>
-    <mergeCell ref="AP21:AS21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AH18:AK18"/>
-    <mergeCell ref="AL18:AO18"/>
-    <mergeCell ref="AP18:AS18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AH19:AK19"/>
-    <mergeCell ref="AL19:AO19"/>
-    <mergeCell ref="AP19:AS19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL10:AO10"/>
     <mergeCell ref="AP6:AS6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:S6"/>
@@ -3206,87 +3407,86 @@
     <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AH18:AK18"/>
+    <mergeCell ref="AL18:AO18"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AH19:AK19"/>
+    <mergeCell ref="AL19:AO19"/>
+    <mergeCell ref="AP19:AS19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AH20:AK20"/>
+    <mergeCell ref="AL20:AO20"/>
+    <mergeCell ref="AP20:AS20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AH21:AK21"/>
+    <mergeCell ref="AL21:AO21"/>
+    <mergeCell ref="AP21:AS21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="AP22:AS22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:S23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="AP23:AS23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:AO24"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:S25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AH25:AK25"/>
+    <mergeCell ref="AL25:AO25"/>
+    <mergeCell ref="AP25:AS25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:S24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AP26:AS26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:S27"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AH27:AK27"/>
+    <mergeCell ref="AL27:AO27"/>
+    <mergeCell ref="AP27:AS27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:S26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -3296,21 +3496,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -3480,24 +3665,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A5182E5-7D34-4281-9EF7-63544A82147D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3513,4 +3696,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/03_design/ユニットテスト仕様書(CUI).xlsx
+++ b/03_design/ユニットテスト仕様書(CUI).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CAB01-71D6-4263-A66B-A4A436D07EA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A9CBD-78C8-4831-9697-1AE05BF07997}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -932,9 +932,6 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Sswgtnk12</t>
   </si>
   <si>
     <t>OK</t>
@@ -1269,10 +1266,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1281,11 +1281,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1293,26 +1296,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1329,23 +1323,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1690,8 +1687,8 @@
   </sheetPr>
   <dimension ref="B1:AS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20:AO20"/>
+    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9:AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1706,104 +1703,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1896,1370 +1893,1370 @@
       <c r="AS5" s="4"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="21" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="21" t="s">
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="21" t="s">
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="21" t="s">
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="21" t="s">
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="21" t="s">
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="23"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="34"/>
     </row>
     <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="15" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="15" t="s">
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="11" t="s">
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="34">
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="21">
         <v>43986</v>
       </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="12"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="24"/>
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="15" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="15" t="s">
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="11" t="s">
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="34">
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="21">
         <v>43986</v>
       </c>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="12"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="24"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="15" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="15" t="s">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="11" t="s">
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="34">
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="21">
         <v>43986</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="12"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="24"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="15" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="15" t="s">
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="11" t="s">
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="34">
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="21">
         <v>43986</v>
       </c>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="12"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="24"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="15" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="15" t="s">
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="11" t="s">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="34">
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="21">
         <v>43986</v>
       </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="12"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="24"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="15" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="15" t="s">
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="11" t="s">
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="34">
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="21">
         <v>43986</v>
       </c>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="12"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="24"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="15" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="15" t="s">
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="11" t="s">
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="34">
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="21">
         <v>43986</v>
       </c>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="12"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="24"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="15" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="15" t="s">
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="11" t="s">
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="34">
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="21">
         <v>43986</v>
       </c>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="12"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="24"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="15" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="15" t="s">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="11" t="s">
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="34">
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="21">
         <v>43986</v>
       </c>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="12"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="24"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="15" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="15" t="s">
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="11" t="s">
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="34">
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="21">
         <v>43986</v>
       </c>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="12"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="24"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="17" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="17" t="s">
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="11" t="s">
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="34">
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="21">
         <v>43986</v>
       </c>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="20"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="17"/>
     </row>
     <row r="18" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="15">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="11">
         <v>1</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="15">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="11" t="s">
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="34">
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="21">
         <v>43986</v>
       </c>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="12"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="24"/>
     </row>
     <row r="19" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="15">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="11">
         <v>-1</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="11" t="s">
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="34">
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="21">
         <v>43986</v>
       </c>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="12"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="24"/>
     </row>
     <row r="20" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="15">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="11">
         <v>1</v>
       </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="15">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="11" t="s">
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="34">
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="21">
         <v>43986</v>
       </c>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="12"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="24"/>
     </row>
     <row r="21" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="19">
         <v>-1</v>
       </c>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="11" t="s">
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="34">
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="21">
         <v>43986</v>
       </c>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="20"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="17"/>
     </row>
     <row r="22" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="15">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="11">
         <v>1</v>
       </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="15">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="11" t="s">
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="34">
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="21">
         <v>43986</v>
       </c>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="12"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="24"/>
     </row>
     <row r="23" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="17">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="19">
         <v>-1</v>
       </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="11" t="s">
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="34">
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="21">
         <v>43986</v>
       </c>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="20"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="17"/>
     </row>
     <row r="24" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="15" t="b">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="15" t="b">
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="11" t="s">
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="34">
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="21">
         <v>43986</v>
       </c>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="12"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="24"/>
     </row>
     <row r="25" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="17" t="b">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="17" t="b">
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="11" t="s">
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="34">
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="21">
         <v>43986</v>
       </c>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="20"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="17"/>
     </row>
     <row r="26" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="15" t="b">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="15" t="b">
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="11" t="s">
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="34">
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="21">
         <v>43986</v>
       </c>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="12"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="24"/>
     </row>
     <row r="27" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="17" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="17" t="s">
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="11" t="s">
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="34">
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="21">
         <v>43986</v>
       </c>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="19"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
-      <c r="AS27" s="20"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="17"/>
     </row>
     <row r="28" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6"/>
@@ -3309,6 +3306,160 @@
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AP26:AS26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:S27"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AH27:AK27"/>
+    <mergeCell ref="AL27:AO27"/>
+    <mergeCell ref="AP27:AS27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:S26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:AO24"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:S25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AH25:AK25"/>
+    <mergeCell ref="AL25:AO25"/>
+    <mergeCell ref="AP25:AS25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:S24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="AP22:AS22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:S23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="AP23:AS23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AH20:AK20"/>
+    <mergeCell ref="AL20:AO20"/>
+    <mergeCell ref="AP20:AS20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AH21:AK21"/>
+    <mergeCell ref="AL21:AO21"/>
+    <mergeCell ref="AP21:AS21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AH18:AK18"/>
+    <mergeCell ref="AL18:AO18"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AH19:AK19"/>
+    <mergeCell ref="AL19:AO19"/>
+    <mergeCell ref="AP19:AS19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="E9:S9"/>
     <mergeCell ref="T9:X9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -3333,160 +3484,6 @@
     <mergeCell ref="AH15:AK15"/>
     <mergeCell ref="AH16:AK16"/>
     <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH18:AK18"/>
-    <mergeCell ref="AL18:AO18"/>
-    <mergeCell ref="AP18:AS18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AH19:AK19"/>
-    <mergeCell ref="AL19:AO19"/>
-    <mergeCell ref="AP19:AS19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AH20:AK20"/>
-    <mergeCell ref="AL20:AO20"/>
-    <mergeCell ref="AP20:AS20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AH21:AK21"/>
-    <mergeCell ref="AL21:AO21"/>
-    <mergeCell ref="AP21:AS21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AH22:AK22"/>
-    <mergeCell ref="AL22:AO22"/>
-    <mergeCell ref="AP22:AS22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:S23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AH23:AK23"/>
-    <mergeCell ref="AL23:AO23"/>
-    <mergeCell ref="AP23:AS23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:AO24"/>
-    <mergeCell ref="AP24:AS24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:S25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AH25:AK25"/>
-    <mergeCell ref="AL25:AO25"/>
-    <mergeCell ref="AP25:AS25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:S24"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="AP26:AS26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:S27"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AH27:AK27"/>
-    <mergeCell ref="AL27:AO27"/>
-    <mergeCell ref="AP27:AS27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:S26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -3496,6 +3493,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -3665,15 +3671,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3681,6 +3678,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A5182E5-7D34-4281-9EF7-63544A82147D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3698,14 +3703,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>
